--- a/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.0.0_Requirements.xlsx
+++ b/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.0.0_Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/smart-app-launch-test-kit/lib/smart_app_launch/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD23E3-4A35-9245-A61F-6B87660479BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A796EA-224D-5C41-A142-7EC2648B7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="31820" windowHeight="16620" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3836,6 +3836,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3853,21 +3868,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4239,14 +4239,14 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="47" t="s">
         <v>587</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="27"/>
       <c r="C5" s="22"/>
     </row>
@@ -4258,17 +4258,17 @@
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -4294,10 +4294,10 @@
   <dimension ref="A1:AC493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G437" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G394" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A439" sqref="A439:XFD440"/>
+      <selection pane="bottomRight" activeCell="A265" sqref="A265:A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="25" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>535</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>532</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="27" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="37">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>532</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="28" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="37">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>532</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="29" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="37">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>532</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="30" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>536</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="31" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>537</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="32" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>538</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="33" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="37">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>538</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="34" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>538</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="35" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="37">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>538</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="36" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="37">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>538</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="37" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="37">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>538</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="38" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="37">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>538</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="39" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A39" s="37">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>538</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="40" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="37">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>538</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="41" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="37">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>538</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="42" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="37">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>538</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="43" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="37">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>538</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="44" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="37">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>538</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="45" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>538</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="46" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="37">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>538</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="47" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="37">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>538</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="48" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="37">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>538</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="49" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="37">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>538</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="50" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="37">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>538</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="51" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="37">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>538</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="52" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="37">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>538</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="53" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="37">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>538</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="54" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="37">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>542</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="55" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="37">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>542</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="56" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="37">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>542</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="57" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="37">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>542</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="58" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="37">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>542</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="59" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="37">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>542</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="60" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="37">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>542</v>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="61" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="37">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>542</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="62" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="37">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>542</v>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="63" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="37">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>539</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="64" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="37">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>539</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="37">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>539</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="66" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="37">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>539</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="67" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="37">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>539</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="37">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>539</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="69" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="37">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>539</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="70" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="37">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>539</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="71" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="37">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>539</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="72" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="37">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>539</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B73" s="35" t="s">
         <v>539</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="74" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="37">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>544</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="75" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="37">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>544</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="76" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="37">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>544</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="77" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="37">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>544</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="37">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>544</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="79" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A79" s="37">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>544</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="37">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>544</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="37">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>544</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="82" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="37">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>544</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="83" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A83" s="37">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>544</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="84" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="37">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>544</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="85" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="37">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>544</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="37">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>544</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="37">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>544</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="37">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>544</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="89" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="37">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>544</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="90" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="37">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>544</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="91" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="37">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>544</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="37">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>544</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="93" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="37">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B93" s="35" t="s">
         <v>107</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="94" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="37">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B94" s="35" t="s">
         <v>540</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="37">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>545</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="37">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B96" s="35" t="s">
         <v>545</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="97" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="37">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B97" s="35" t="s">
         <v>545</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="98" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="37">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B98" s="35" t="s">
         <v>545</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="37">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B99" s="35" t="s">
         <v>545</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="37">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B100" s="35" t="s">
         <v>546</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="101" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="37">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B101" s="35" t="s">
         <v>546</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="102" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="37">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>546</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="103" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="37">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B103" s="35" t="s">
         <v>546</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="104" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="37">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B104" s="35" t="s">
         <v>546</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="105" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="37">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>546</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="106" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="37">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B106" s="35" t="s">
         <v>541</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="107" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A107" s="37">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>541</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="108" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="37">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>541</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="109" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="37">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B109" s="35" t="s">
         <v>541</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="110" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A110" s="37">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>541</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="111" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="37">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B111" s="35" t="s">
         <v>547</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="112" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="37">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B112" s="35" t="s">
         <v>547</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="113" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="37">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B113" s="35" t="s">
         <v>547</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="114" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" s="37">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B114" s="35" t="s">
         <v>547</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="115" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="37">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B115" s="35" t="s">
         <v>547</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="116" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="37">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B116" s="35" t="s">
         <v>547</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="117" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="37">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B117" s="35" t="s">
         <v>547</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="118" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="37">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B118" s="35" t="s">
         <v>547</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="119" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="37">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B119" s="35" t="s">
         <v>547</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="120" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" s="37">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B120" s="35" t="s">
         <v>549</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="121" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="37">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B121" s="35" t="s">
         <v>550</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="122" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A122" s="37">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="B122" s="35" t="s">
         <v>550</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="123" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="37">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B123" s="35" t="s">
         <v>550</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="124" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="37">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B124" s="35" t="s">
         <v>550</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="125" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="37">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B125" s="35" t="s">
         <v>550</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="126" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A126" s="37">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B126" s="35" t="s">
         <v>550</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="127" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A127" s="37">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B127" s="35" t="s">
         <v>550</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="128" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" s="37">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B128" s="35" t="s">
         <v>550</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="129" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A129" s="37">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B129" s="35" t="s">
         <v>550</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="130" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="37">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B130" s="35" t="s">
         <v>550</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="131" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A131" s="37">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B131" s="35" t="s">
         <v>551</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="132" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" s="37">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B132" s="35" t="s">
         <v>553</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="133" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A133" s="37">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B133" s="35" t="s">
         <v>554</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="134" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="37">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B134" s="35" t="s">
         <v>555</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="135" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="37">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="B135" s="35" t="s">
         <v>555</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="136" spans="1:20" ht="255" x14ac:dyDescent="0.2">
       <c r="A136" s="37">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="B136" s="35" t="s">
         <v>556</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="137" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A137" s="37">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B137" s="35" t="s">
         <v>557</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="138" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" s="37">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B138" s="35" t="s">
         <v>557</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="139" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="37">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B139" s="35" t="s">
         <v>557</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="140" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="37">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B140" s="35" t="s">
         <v>557</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="141" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" s="37">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B141" s="35" t="s">
         <v>558</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="142" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" s="37">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B142" s="35" t="s">
         <v>558</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="143" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A143" s="37">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B143" s="35" t="s">
         <v>559</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="144" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="37">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="B144" s="35" t="s">
         <v>559</v>
@@ -7940,7 +7940,7 @@
     </row>
     <row r="145" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="37">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B145" s="35" t="s">
         <v>560</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="146" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="37">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>560</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="147" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" s="37">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="B147" s="35" t="s">
         <v>560</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="148" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A148" s="37">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>560</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="149" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="37">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B149" s="35" t="s">
         <v>560</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="150" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" s="37">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="B150" s="35" t="s">
         <v>561</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="151" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" s="37">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="B151" s="35" t="s">
         <v>561</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="152" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" s="37">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B152" s="35" t="s">
         <v>561</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="153" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A153" s="37">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B153" s="35" t="s">
         <v>563</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="154" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A154" s="37">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B154" s="35" t="s">
         <v>563</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="163" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" s="37">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="35" t="s">
         <v>562</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="164" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="37">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164" s="35" t="s">
         <v>562</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="165" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="37">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B165" s="35" t="s">
         <v>562</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="166" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" s="37">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B166" s="35" t="s">
         <v>562</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="167" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="37">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B167" s="35" t="s">
         <v>563</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="168" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A168" s="37">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B168" s="35" t="s">
         <v>563</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="169" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="37">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B169" s="35" t="s">
         <v>564</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="170" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A170" s="37">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B170" s="35" t="s">
         <v>564</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="171" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" s="37">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B171" s="35" t="s">
         <v>564</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="172" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A172" s="37">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B172" s="35" t="s">
         <v>564</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="173" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A173" s="37">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B173" s="35" t="s">
         <v>564</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="174" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="37">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B174" s="35" t="s">
         <v>564</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="175" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A175" s="37">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B175" s="35" t="s">
         <v>564</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="176" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" s="37">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B176" s="35" t="s">
         <v>564</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="177" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="37">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B177" s="35" t="s">
         <v>564</v>
@@ -8643,7 +8643,7 @@
       <c r="E178" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T178" s="48" t="s">
+      <c r="T178" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       <c r="E179" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T179" s="48" t="s">
+      <c r="T179" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
       <c r="E180" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T180" s="48" t="s">
+      <c r="T180" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       <c r="E181" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T181" s="48" t="s">
+      <c r="T181" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
       <c r="E182" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T182" s="48" t="s">
+      <c r="T182" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8743,7 +8743,7 @@
       <c r="E183" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T183" s="48" t="s">
+      <c r="T183" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8763,7 +8763,7 @@
       <c r="E184" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T184" s="48" t="s">
+      <c r="T184" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       <c r="E185" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T185" s="48" t="s">
+      <c r="T185" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       <c r="E186" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T186" s="48" t="s">
+      <c r="T186" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       <c r="E187" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T187" s="48" t="s">
+      <c r="T187" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="E188" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T188" s="48" t="s">
+      <c r="T188" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="E189" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T189" s="48" t="s">
+      <c r="T189" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
       <c r="E190" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T190" s="48" t="s">
+      <c r="T190" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
       <c r="E191" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T191" s="48" t="s">
+      <c r="T191" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8923,7 +8923,7 @@
       <c r="E192" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="T192" s="48" t="s">
+      <c r="T192" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       <c r="E193" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T193" s="48" t="s">
+      <c r="T193" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="195" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" s="37">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="35" t="s">
         <v>565</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="196" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" s="37">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="35" t="s">
         <v>566</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="197" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A197" s="37">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B197" s="35" t="s">
         <v>566</v>
@@ -9058,7 +9058,7 @@
         <f t="array" ref="N198">SECTION_NAME(B198)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
-      <c r="T198" s="48" t="s">
+      <c r="T198" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="200" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="37">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="35" t="s">
         <v>566</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="201" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A201" s="37">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" s="35" t="s">
         <v>566</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="202" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" s="37">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B202" s="35" t="s">
         <v>566</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="203" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="37">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B203" s="35" t="s">
         <v>566</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="204" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" s="37">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B204" s="35" t="s">
         <v>566</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="205" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A205" s="37">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B205" s="35" t="s">
         <v>566</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="206" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A206" s="37">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B206" s="35" t="s">
         <v>566</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="207" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A207" s="37">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B207" s="35" t="s">
         <v>566</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="208" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" s="37">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B208" s="35" t="s">
         <v>566</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="209" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" s="37">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B209" s="35" t="s">
         <v>566</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="210" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" s="37">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B210" s="35" t="s">
         <v>566</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="211" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" s="37">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B211" s="35" t="s">
         <v>566</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="212" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="37">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B212" s="35" t="s">
         <v>566</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="213" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" s="37">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B213" s="35" t="s">
         <v>566</v>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="214" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A214" s="37">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B214" s="35" t="s">
         <v>566</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="215" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A215" s="37">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B215" s="35" t="s">
         <v>566</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="216" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="37">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B216" s="35" t="s">
         <v>567</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="217" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A217" s="37">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B217" s="35" t="s">
         <v>567</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="218" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A218" s="37">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B218" s="35" t="s">
         <v>568</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="219" spans="1:20" ht="204" x14ac:dyDescent="0.2">
       <c r="A219" s="37">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B219" s="35" t="s">
         <v>569</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="222" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="37">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="35" t="s">
         <v>571</v>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="223" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A223" s="37">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B223" s="35" t="s">
         <v>571</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="224" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A224" s="37">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B224" s="35" t="s">
         <v>571</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="225" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A225" s="37">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B225" s="35" t="s">
         <v>571</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="226" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A226" s="37">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B226" s="35" t="s">
         <v>572</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="227" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" s="37">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B227" s="35" t="s">
         <v>573</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="228" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="37">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B228" s="35" t="s">
         <v>574</v>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="229" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A229" s="37">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B229" s="35" t="s">
         <v>575</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="230" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="37">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B230" s="35" t="s">
         <v>576</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="231" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A231" s="37">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B231" s="35" t="s">
         <v>577</v>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="232" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" s="37">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B232" s="35" t="s">
         <v>577</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="233" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="37">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B233" s="35" t="s">
         <v>577</v>
@@ -9914,7 +9914,7 @@
     </row>
     <row r="234" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A234" s="37">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B234" s="35" t="s">
         <v>577</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="235" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A235" s="37">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B235" s="35" t="s">
         <v>577</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="236" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A236" s="37">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B236" s="35" t="s">
         <v>577</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="237" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A237" s="37">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B237" s="35" t="s">
         <v>577</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="238" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A238" s="37">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B238" s="35" t="s">
         <v>577</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="239" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A239" s="37">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B239" s="35" t="s">
         <v>577</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="240" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A240" s="37">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B240" s="35" t="s">
         <v>579</v>
@@ -10079,23 +10079,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:20" s="49" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A241" s="49">
+    <row r="241" spans="1:20" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A241" s="43">
         <v>240</v>
       </c>
-      <c r="B241" s="50" t="s">
+      <c r="B241" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="C241" s="51" t="s">
+      <c r="C241" s="45" t="s">
         <v>590</v>
       </c>
-      <c r="D241" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="T241" s="52" t="s">
+      <c r="D241" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E241" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T241" s="46" t="s">
         <v>591</v>
       </c>
     </row>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="244" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A244" s="37">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="35" t="s">
         <v>581</v>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="245" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" s="37">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B245" s="35" t="s">
         <v>581</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="246" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A246" s="37">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B246" s="35" t="s">
         <v>581</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="247" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A247" s="37">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B247" s="35" t="s">
         <v>581</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="248" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="37">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B248" s="35" t="s">
         <v>581</v>
@@ -10260,7 +10260,7 @@
     </row>
     <row r="249" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A249" s="37">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B249" s="35" t="s">
         <v>581</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="250" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="37">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B250" s="35" t="s">
         <v>582</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="251" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A251" s="37">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B251" s="35" t="s">
         <v>583</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="252" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="37">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B252" s="35" t="s">
         <v>584</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="253" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A253" s="37">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B253" s="35" t="s">
         <v>584</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="254" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A254" s="37">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B254" s="35" t="s">
         <v>584</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="255" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A255" s="37">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B255" s="35" t="s">
         <v>584</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="256" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A256" s="37">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B256" s="35" t="s">
         <v>584</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="257" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A257" s="37">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B257" s="35" t="s">
         <v>584</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="258" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A258" s="37">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B258" s="35" t="s">
         <v>584</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="259" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A259" s="37">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B259" s="35" t="s">
         <v>584</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="260" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A260" s="37">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B260" s="35" t="s">
         <v>584</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="261" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A261" s="37">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B261" s="35" t="s">
         <v>584</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="262" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A262" s="37">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B262" s="35" t="s">
         <v>584</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="263" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="37">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B263" s="35" t="s">
         <v>584</v>
@@ -10633,7 +10633,7 @@
       <c r="E264" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="T264" s="48" t="s">
+      <c r="T264" s="42" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="266" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="37">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="35" t="s">
         <v>586</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="267" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A267" s="37">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B267" s="35" t="s">
         <v>586</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="268" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A268" s="37">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B268" s="35" t="s">
         <v>586</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="269" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A269" s="37">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B269" s="35" t="s">
         <v>586</v>
@@ -13056,31 +13056,31 @@
         <v>using-well-known</v>
       </c>
     </row>
-    <row r="374" spans="1:20" s="49" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A374" s="49">
+    <row r="374" spans="1:20" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A374" s="43">
         <v>373</v>
       </c>
-      <c r="B374" s="50" t="s">
+      <c r="B374" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="C374" s="51" t="s">
+      <c r="C374" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="D374" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E374" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="M374" s="49" t="str" cm="1">
+      <c r="D374" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E374" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M374" s="43" t="str" cm="1">
         <f t="array" ref="M374">PAGE_NAME(B374)</f>
         <v>conformance</v>
       </c>
-      <c r="N374" s="49" t="str" cm="1">
+      <c r="N374" s="43" t="str" cm="1">
         <f t="array" ref="N374">SECTION_NAME(B374)</f>
         <v>using-well-known</v>
       </c>
-      <c r="T374" s="49" t="s">
+      <c r="T374" s="43" t="s">
         <v>607</v>
       </c>
     </row>
@@ -13315,31 +13315,31 @@
         <v>metadata</v>
       </c>
     </row>
-    <row r="384" spans="1:20" s="49" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A384" s="49">
+    <row r="384" spans="1:20" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A384" s="43">
         <v>383</v>
       </c>
-      <c r="B384" s="50" t="s">
+      <c r="B384" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="C384" s="51" t="s">
+      <c r="C384" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="D384" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E384" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="M384" s="49" t="str" cm="1">
+      <c r="D384" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E384" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M384" s="43" t="str" cm="1">
         <f t="array" ref="M384">PAGE_NAME(B384)</f>
         <v>conformance</v>
       </c>
-      <c r="N384" s="49" t="str" cm="1">
+      <c r="N384" s="43" t="str" cm="1">
         <f t="array" ref="N384">SECTION_NAME(B384)</f>
         <v>metadata</v>
       </c>
-      <c r="T384" s="49" t="s">
+      <c r="T384" s="43" t="s">
         <v>591</v>
       </c>
     </row>
@@ -15604,14 +15604,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:3" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -15829,19 +15829,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15850,7 +15837,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -16104,25 +16091,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -16130,7 +16112,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E19681A-8DD3-40CB-9262-8533E89B98A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16148,4 +16130,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.0.0_Requirements.xlsx
+++ b/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.0.0_Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/smart-app-launch-test-kit/lib/smart_app_launch/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6274E-4D28-3044-864E-433C789AB913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C23C2-032E-E445-9146-E616EB526067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="31820" windowHeight="16620" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="31840" windowHeight="16640" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="656">
   <si>
     <r>
       <rPr>
@@ -3021,6 +3021,235 @@
     </r>
   </si>
   <si>
+    <t>Added in STU 2.2, kept to reserve the id</t>
+  </si>
+  <si>
+    <t>The client is pre-authorized by the server: at registration time or out of band, it is given the authority to access certain data.</t>
+  </si>
+  <si>
+    <t>Updated in STU2.2</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#use-this-profile-when-the-following-conditions-apply</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#advertising-server-support-for-this-profile</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#registering-a-client-communicating-public-keys</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#authenticating-to-the-token-endpoint</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#request</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#signature-verification</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#response</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-symmetric.html#profile-audience-and-scope</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-symmetric.html#authentication-using-a-client_secret</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#capability-sets</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#patient-access-for-standalone-apps</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#capabilities</t>
+  </si>
+  <si>
+    <t>Added in STU 2.2, keeping as DEPRECATED to reserve the id</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#using-well-known</t>
+  </si>
+  <si>
+    <t>Contrary to RFC5785 Appendix B.4, the `.well-known` path component may be appended even if the FHIR endpoint already contains a path component</t>
+  </si>
+  <si>
+    <t>Updatded in STU2.2</t>
+  </si>
+  <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`authorization_endpoint`[is] required … [and Shall contain the] URL to the OAuth2 authorization endpoint</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#metadata</t>
+  </si>
+  <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`registration_endpoint`[is] RECOMMENDED … [and Shall contain the] URL to the OAuth2 dynamic registration endpoint for this FHIR server.</t>
+  </si>
+  <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`associated_endpoints`[is] RECOMMENDED … [and Shall contain an a]rray of objects for endpoints that share the same authorization mechanism as this FHIR endpoint, each with a “url” and “capabilities” array.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#response</t>
+  </si>
+  <si>
+    <t>Actors*</t>
+  </si>
+  <si>
+    <t>Groupings (Column P)</t>
+  </si>
+  <si>
+    <t>launch-*</t>
+  </si>
+  <si>
+    <t>launch-standalone</t>
+  </si>
+  <si>
+    <t>launch-ehr</t>
+  </si>
+  <si>
+    <t>sso-openid-connect</t>
+  </si>
+  <si>
+    <t>authorize-post</t>
+  </si>
+  <si>
+    <t>client-public</t>
+  </si>
+  <si>
+    <t>client-confidential-*</t>
+  </si>
+  <si>
+    <t>permission-offline</t>
+  </si>
+  <si>
+    <t>permission-online</t>
+  </si>
+  <si>
+    <t>permission-*</t>
+  </si>
+  <si>
+    <t>permission-v2</t>
+  </si>
+  <si>
+    <t>permission-v1</t>
+  </si>
+  <si>
+    <t>permission-patient</t>
+  </si>
+  <si>
+    <t>permission-user</t>
+  </si>
+  <si>
+    <t>Backend Services</t>
+  </si>
+  <si>
+    <t>context-*</t>
+  </si>
+  <si>
+    <t>context-banner</t>
+  </si>
+  <si>
+    <t>context-intent</t>
+  </si>
+  <si>
+    <t>context-style</t>
+  </si>
+  <si>
+    <t>context-tenant</t>
+  </si>
+  <si>
+    <t>context-extensions</t>
+  </si>
+  <si>
+    <t>Introspection</t>
+  </si>
+  <si>
+    <t>client-confidential-asymmetric</t>
+  </si>
+  <si>
+    <t>client-confidential-symmetric</t>
+  </si>
+  <si>
+    <t>Patient Access for Standalone Apps</t>
+  </si>
+  <si>
+    <t>Patient Access for EHR Launch</t>
+  </si>
+  <si>
+    <t>Clinician Access for Standalone</t>
+  </si>
+  <si>
+    <t>Clinician Access for EHR Launch</t>
+  </si>
+  <si>
+    <t>context-ehr-patient</t>
+  </si>
+  <si>
+    <t>context-ehr-encounter</t>
+  </si>
+  <si>
+    <t>context-standalone-patient</t>
+  </si>
+  <si>
+    <t>context-standalone-encounter</t>
+  </si>
+  <si>
+    <t>well-known</t>
+  </si>
+  <si>
+    <t>context-*-patient</t>
+  </si>
+  <si>
+    <t>context-*-encounter</t>
+  </si>
+  <si>
+    <t>context-fhirContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on SMART Capabilities (https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#smart-on-fhir-oauth-authorization-endpoints-and-capabilities)
+- well-known: requirements related to capabilities and publication of them
+- launch-*: app-launch requirements, pertaining to both ehr and standalone launch
+- launch-ehr: app-launch requirements, pertaining speicifically to ehr launch
+- launch-standalone: app-launch requirements, pertaining speicifically to standalone launch
+- Backend Services: backend services-based access requirements
+- Introspection: requirements related to token introspection capabilities
+- Brands: requirements related to User-access Brands and Endpoints functionality
+- client-public: requirements related to public clients
+- client-confidential-*: requirements related to all flavors of confidential clients
+- client-confidential-symmetric: requirements related to confidential clients using symmetric authentication
+- client-confidential-asymmetric: requirements related to confidential clients using asymmetric authentication
+- sso-openid-connect: requirements related to exposing identity details
+- authorize-post: requirements for support of post-based authorization requests
+- smart-app-state: requirements related to experimental support for app state persistance
+- permission-online: requirements related to issuing refresh tokens for access as long as the user is online
+- permission-offline: requirements related to issuing refresh tokens for access beyond when the user is online
+- permission-*: requirements related to smart scopes
+- permission-v2: requirements related to v2 of the smart scopes syntax
+- permission-v1: requirements related to v1 of the smart scopes syntax
+- permission-patient: requirements related to requesting and providing access to a specific patient's data
+- permission-user: requirements related to requesting and providing access to a specific user
+</t>
+  </si>
+  <si>
+    <t>continued…</t>
+  </si>
+  <si>
+    <t>- context-*: requirements related to requests for and provision of context from the server to the client
+- context-ehr-patient: requirements related to requests for and provision of patient context during ehr launch
+- context-ehr-patient: requirements related to requests for and provision of encounter context during ehr launch
+- context-standalone-patient: requirements related to requests for and provision of patient context during standalone launch
+- context-standalone-patient: requirements related to requests for and provision of encounter context during standalone launch
+- context-*-patient: requirements related to requests for and provision of patient context during any type of launch
+- context-*-encounter: requirements related to requests for and provision of encounter context during any type of launch
+- context-fhirContext: requirements related to requests for and provision of additional fhir context data.
+- context-banner: requirements related to banner context details
+- context-intent: requirements related to intent context details
+- context-style: requirements related to style context details
+- context-tenant: requirements related to tentant context details
+- context-extensions: requirements around extensions to context data, including requests for and provision of that information</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Metadata
 </t>
@@ -3229,81 +3458,56 @@
       </rPr>
       <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
     </r>
-  </si>
-  <si>
-    <t>Added in STU 2.2, kept to reserve the id</t>
-  </si>
-  <si>
-    <t>The client is pre-authorized by the server: at registration time or out of band, it is given the authority to access certain data.</t>
-  </si>
-  <si>
-    <t>Updated in STU2.2</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#use-this-profile-when-the-following-conditions-apply</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#advertising-server-support-for-this-profile</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#registering-a-client-communicating-public-keys</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#authenticating-to-the-token-endpoint</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#request</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#signature-verification</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-asymmetric.html#response</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-symmetric.html#profile-audience-and-scope</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/client-confidential-symmetric.html#authentication-using-a-client_secret</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#capability-sets</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#patient-access-for-standalone-apps</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#capabilities</t>
-  </si>
-  <si>
-    <t>Added in STU 2.2, keeping as DEPRECATED to reserve the id</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#using-well-known</t>
-  </si>
-  <si>
-    <t>Contrary to RFC5785 Appendix B.4, the `.well-known` path component may be appended even if the FHIR endpoint already contains a path component</t>
-  </si>
-  <si>
-    <t>Updatded in STU2.2</t>
-  </si>
-  <si>
-    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`authorization_endpoint`[is] required … [and Shall contain the] URL to the OAuth2 authorization endpoint</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#metadata</t>
-  </si>
-  <si>
-    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`registration_endpoint`[is] RECOMMENDED … [and Shall contain the] URL to the OAuth2 dynamic registration endpoint for this FHIR server.</t>
-  </si>
-  <si>
-    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`associated_endpoints`[is] RECOMMENDED … [and Shall contain an a]rray of objects for endpoints that share the same authorization mechanism as this FHIR endpoint, each with a “url” and “capabilities” array.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#response</t>
-  </si>
-  <si>
-    <t>Actors*</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Additional metadata:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Groupings (Column P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">): definitions of the Groupings in Column P of the Requirements sheet. </t>
+    </r>
+  </si>
+  <si>
+    <t>launch-*, Backend Services</t>
+  </si>
+  <si>
+    <t>For grouping, Adding backend services since conformance is a requirement for it as well.</t>
+  </si>
+  <si>
+    <t>For grouping, this is tested and applicable to backend services</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3538,6 +3742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3721,7 +3931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3849,6 +4059,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4239,14 +4461,14 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>586</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="27"/>
       <c r="C5" s="22"/>
     </row>
@@ -4258,17 +4480,17 @@
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="54"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -4294,10 +4516,10 @@
   <dimension ref="A1:AC493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="P440" sqref="P15:P440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4341,7 +4563,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4422,7 +4644,9 @@
         <v>app-protection</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -4463,7 +4687,9 @@
         <v>app-protection</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -4505,7 +4731,9 @@
         <v>app-protection</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -4547,7 +4775,9 @@
         <v>app-protection</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -4589,7 +4819,9 @@
         <v>app-protection</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -4631,7 +4863,9 @@
         <v>app-protection</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -4673,7 +4907,9 @@
         <v>app-protection</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -4715,7 +4951,9 @@
         <v>app-protection</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -4757,7 +4995,9 @@
         <v>app-protection</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -4791,6 +5031,9 @@
         <f t="array" ref="N11">SECTION_NAME(B11)</f>
         <v>support-for-public-and-confidential-apps</v>
       </c>
+      <c r="P11" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="12" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -4816,6 +5059,9 @@
         <f t="array" ref="N12">SECTION_NAME(B12)</f>
         <v>use-the-confidential-app--profile-if-your-app-is-able-to-protect-a-secret</v>
       </c>
+      <c r="P12" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -4841,6 +5087,9 @@
         <f t="array" ref="N13">SECTION_NAME(B13)</f>
         <v>use-the-confidential-app--profile-if-your-app-is-able-to-protect-a-secret</v>
       </c>
+      <c r="P13" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="14" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -4866,6 +5115,9 @@
         <f t="array" ref="N14">SECTION_NAME(B14)</f>
         <v>considerations-for-pkce-support</v>
       </c>
+      <c r="P14" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="15" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -4891,6 +5143,9 @@
         <f t="array" ref="N15">SECTION_NAME(B15)</f>
         <v>considerations-for-pkce-support</v>
       </c>
+      <c r="P15" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="16" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -4916,6 +5171,9 @@
         <f t="array" ref="N16">SECTION_NAME(B16)</f>
         <v>considerations-for-pkce-support</v>
       </c>
+      <c r="P16" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="17" spans="1:20" s="39" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
@@ -4942,7 +5200,7 @@
         <v>considerations-for-cross-origin-resource-sharing-cors-support</v>
       </c>
       <c r="T17" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -4970,7 +5228,7 @@
         <v>considerations-for-cross-origin-resource-sharing-cors-support</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -4997,6 +5255,9 @@
         <f t="array" ref="N19">SECTION_NAME(B19)</f>
         <v>smart-authorization--fhir-access-overview</v>
       </c>
+      <c r="P19" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="T19" s="6" t="s">
         <v>48</v>
       </c>
@@ -5025,6 +5286,9 @@
         <f t="array" ref="N20">SECTION_NAME(B20)</f>
         <v>register-app-with-ehr</v>
       </c>
+      <c r="P20" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="T20" s="6" t="s">
         <v>48</v>
       </c>
@@ -5045,6 +5309,9 @@
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P21" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="37">
@@ -5062,6 +5329,9 @@
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P22" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="37">
@@ -5079,6 +5349,9 @@
       <c r="E23" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P23" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="37">
@@ -5096,6 +5369,9 @@
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P24" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="37">
@@ -5113,6 +5389,9 @@
       <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P25" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="37">
@@ -5242,6 +5521,9 @@
       <c r="E30" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P30" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
@@ -5267,6 +5549,12 @@
         <f t="array" ref="N31">SECTION_NAME(B31)</f>
         <v>response-3</v>
       </c>
+      <c r="P31" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="37">
@@ -5292,6 +5580,9 @@
         <f t="array" ref="N32">SECTION_NAME(B32)</f>
         <v>request-4</v>
       </c>
+      <c r="P32" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="37">
@@ -5317,6 +5608,9 @@
         <f t="array" ref="N33">SECTION_NAME(B33)</f>
         <v>request-4</v>
       </c>
+      <c r="P33" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="37">
@@ -5342,6 +5636,9 @@
         <f t="array" ref="N34">SECTION_NAME(B34)</f>
         <v>request-4</v>
       </c>
+      <c r="P34" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="37">
@@ -5367,6 +5664,9 @@
         <f t="array" ref="N35">SECTION_NAME(B35)</f>
         <v>request-4</v>
       </c>
+      <c r="P35" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="37">
@@ -5392,6 +5692,9 @@
         <f t="array" ref="N36">SECTION_NAME(B36)</f>
         <v>request-4</v>
       </c>
+      <c r="P36" s="6" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="37">
@@ -5417,6 +5720,9 @@
         <f t="array" ref="N37">SECTION_NAME(B37)</f>
         <v>request-4</v>
       </c>
+      <c r="P37" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="37">
@@ -5442,6 +5748,9 @@
         <f t="array" ref="N38">SECTION_NAME(B38)</f>
         <v>request-4</v>
       </c>
+      <c r="P38" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="T38" s="6" t="s">
         <v>521</v>
       </c>
@@ -5498,6 +5807,9 @@
         <f t="array" ref="N40">SECTION_NAME(B40)</f>
         <v>request-4</v>
       </c>
+      <c r="P40" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="37">
@@ -5523,6 +5835,9 @@
         <f t="array" ref="N41">SECTION_NAME(B41)</f>
         <v>request-4</v>
       </c>
+      <c r="P41" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="37">
@@ -5548,6 +5863,9 @@
         <f t="array" ref="N42">SECTION_NAME(B42)</f>
         <v>request-4</v>
       </c>
+      <c r="P42" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="37">
@@ -5573,6 +5891,9 @@
         <f t="array" ref="N43">SECTION_NAME(B43)</f>
         <v>request-4</v>
       </c>
+      <c r="P43" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="37">
@@ -5598,6 +5919,9 @@
         <f t="array" ref="N44">SECTION_NAME(B44)</f>
         <v>request-4</v>
       </c>
+      <c r="P44" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
@@ -5623,6 +5947,9 @@
         <f t="array" ref="N45">SECTION_NAME(B45)</f>
         <v>request-4</v>
       </c>
+      <c r="P45" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="37">
@@ -5648,6 +5975,9 @@
         <f t="array" ref="N46">SECTION_NAME(B46)</f>
         <v>request-4</v>
       </c>
+      <c r="P46" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="37">
@@ -5673,6 +6003,9 @@
         <f t="array" ref="N47">SECTION_NAME(B47)</f>
         <v>request-4</v>
       </c>
+      <c r="P47" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="37">
@@ -5698,6 +6031,9 @@
         <f t="array" ref="N48">SECTION_NAME(B48)</f>
         <v>request-4</v>
       </c>
+      <c r="P48" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="49" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="37">
@@ -5723,6 +6059,9 @@
         <f t="array" ref="N49">SECTION_NAME(B49)</f>
         <v>request-4</v>
       </c>
+      <c r="P49" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="50" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="37">
@@ -5748,6 +6087,9 @@
         <f t="array" ref="N50">SECTION_NAME(B50)</f>
         <v>request-4</v>
       </c>
+      <c r="P50" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="51" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="37">
@@ -5773,6 +6115,9 @@
         <f t="array" ref="N51">SECTION_NAME(B51)</f>
         <v>request-4</v>
       </c>
+      <c r="P51" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="52" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="37">
@@ -5798,6 +6143,9 @@
         <f t="array" ref="N52">SECTION_NAME(B52)</f>
         <v>request-4</v>
       </c>
+      <c r="P52" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="37">
@@ -5823,6 +6171,9 @@
         <f t="array" ref="N53">SECTION_NAME(B53)</f>
         <v>request-4</v>
       </c>
+      <c r="P53" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="54" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="37">
@@ -5840,6 +6191,9 @@
       <c r="E54" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="P54" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="37">
@@ -5865,6 +6219,9 @@
         <f t="array" ref="N55">SECTION_NAME(B55)</f>
         <v>response-4</v>
       </c>
+      <c r="P55" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="56" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="37">
@@ -5910,6 +6267,9 @@
         <f t="array" ref="N57">SECTION_NAME(B57)</f>
         <v>response-4</v>
       </c>
+      <c r="P57" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="58" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="37">
@@ -5935,6 +6295,9 @@
         <f t="array" ref="N58">SECTION_NAME(B58)</f>
         <v>response-4</v>
       </c>
+      <c r="P58" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="37">
@@ -5960,6 +6323,9 @@
         <f t="array" ref="N59">SECTION_NAME(B59)</f>
         <v>response-4</v>
       </c>
+      <c r="P59" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="37">
@@ -5985,6 +6351,9 @@
         <f t="array" ref="N60">SECTION_NAME(B60)</f>
         <v>response-4</v>
       </c>
+      <c r="P60" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="37">
@@ -6010,6 +6379,9 @@
         <f t="array" ref="N61">SECTION_NAME(B61)</f>
         <v>response-4</v>
       </c>
+      <c r="P61" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="37">
@@ -6035,6 +6407,9 @@
         <f t="array" ref="N62">SECTION_NAME(B62)</f>
         <v>response-4</v>
       </c>
+      <c r="P62" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="37">
@@ -6060,6 +6435,9 @@
         <f t="array" ref="N63">SECTION_NAME(B63)</f>
         <v>request-5</v>
       </c>
+      <c r="P63" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="37">
@@ -6085,8 +6463,11 @@
         <f t="array" ref="N64">SECTION_NAME(B64)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P64" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -6110,8 +6491,11 @@
         <f t="array" ref="N65">SECTION_NAME(B65)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P65" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -6127,8 +6511,11 @@
       <c r="E66" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P66" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -6152,8 +6539,11 @@
         <f t="array" ref="N67">SECTION_NAME(B67)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P67" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -6177,8 +6567,11 @@
         <f t="array" ref="N68">SECTION_NAME(B68)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P68" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="37">
         <v>68</v>
       </c>
@@ -6202,8 +6595,11 @@
         <f t="array" ref="N69">SECTION_NAME(B69)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P69" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="37">
         <v>69</v>
       </c>
@@ -6227,8 +6623,11 @@
         <f t="array" ref="N70">SECTION_NAME(B70)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P70" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="37">
         <v>70</v>
       </c>
@@ -6252,8 +6651,11 @@
         <f t="array" ref="N71">SECTION_NAME(B71)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P71" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="37">
         <v>71</v>
       </c>
@@ -6277,8 +6679,11 @@
         <f t="array" ref="N72">SECTION_NAME(B72)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P72" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="37">
         <v>72</v>
       </c>
@@ -6302,8 +6707,11 @@
         <f t="array" ref="N73">SECTION_NAME(B73)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P73" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="37">
         <v>73</v>
       </c>
@@ -6327,8 +6735,11 @@
         <f t="array" ref="N74">SECTION_NAME(B74)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P74" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="37">
         <v>74</v>
       </c>
@@ -6352,8 +6763,11 @@
         <f t="array" ref="N75">SECTION_NAME(B75)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P75" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="37">
         <v>75</v>
       </c>
@@ -6377,8 +6791,11 @@
         <f t="array" ref="N76">SECTION_NAME(B76)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P76" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="37">
         <v>76</v>
       </c>
@@ -6402,8 +6819,11 @@
         <f t="array" ref="N77">SECTION_NAME(B77)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P77" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="37">
         <v>77</v>
       </c>
@@ -6427,8 +6847,11 @@
         <f t="array" ref="N78">SECTION_NAME(B78)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P78" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A79" s="37">
         <v>78</v>
       </c>
@@ -6452,8 +6875,11 @@
         <f t="array" ref="N79">SECTION_NAME(B79)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P79" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="37">
         <v>79</v>
       </c>
@@ -6477,8 +6903,11 @@
         <f t="array" ref="N80">SECTION_NAME(B80)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P80" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="37">
         <v>80</v>
       </c>
@@ -6502,8 +6931,11 @@
         <f t="array" ref="N81">SECTION_NAME(B81)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P81" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="37">
         <v>81</v>
       </c>
@@ -6527,8 +6959,11 @@
         <f t="array" ref="N82">SECTION_NAME(B82)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P82" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A83" s="37">
         <v>82</v>
       </c>
@@ -6552,8 +6987,11 @@
         <f t="array" ref="N83">SECTION_NAME(B83)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P83" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="37">
         <v>83</v>
       </c>
@@ -6577,8 +7015,11 @@
         <f t="array" ref="N84">SECTION_NAME(B84)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P84" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="37">
         <v>84</v>
       </c>
@@ -6602,8 +7043,11 @@
         <f t="array" ref="N85">SECTION_NAME(B85)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P85" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="37">
         <v>85</v>
       </c>
@@ -6619,8 +7063,11 @@
       <c r="E86" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P86" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="37">
         <v>86</v>
       </c>
@@ -6644,8 +7091,11 @@
         <f t="array" ref="N87">SECTION_NAME(B87)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P87" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="37">
         <v>87</v>
       </c>
@@ -6669,8 +7119,11 @@
         <f t="array" ref="N88">SECTION_NAME(B88)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P88" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="37">
         <v>88</v>
       </c>
@@ -6687,8 +7140,11 @@
         <v>56</v>
       </c>
       <c r="J89" s="38"/>
-    </row>
-    <row r="90" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P89" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="37">
         <v>89</v>
       </c>
@@ -6705,8 +7161,11 @@
         <v>56</v>
       </c>
       <c r="J90" s="38"/>
-    </row>
-    <row r="91" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P90" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="37">
         <v>90</v>
       </c>
@@ -6730,8 +7189,11 @@
         <f t="array" ref="N91">SECTION_NAME(B91)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P91" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="37">
         <v>91</v>
       </c>
@@ -6755,8 +7217,11 @@
         <f t="array" ref="N92">SECTION_NAME(B92)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P92" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="37">
         <v>92</v>
       </c>
@@ -6780,8 +7245,11 @@
         <f t="array" ref="N93">SECTION_NAME(B93)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P93" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="37">
         <v>93</v>
       </c>
@@ -6797,8 +7265,11 @@
       <c r="E94" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P94" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="37">
         <v>94</v>
       </c>
@@ -6822,8 +7293,11 @@
         <f t="array" ref="N95">SECTION_NAME(B95)</f>
         <v>response-6</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P95" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="37">
         <v>95</v>
       </c>
@@ -6847,6 +7321,12 @@
         <f t="array" ref="N96">SECTION_NAME(B96)</f>
         <v>response-6</v>
       </c>
+      <c r="P96" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="T96" s="6" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="97" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="37">
@@ -6864,6 +7344,9 @@
       <c r="E97" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P97" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="98" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="37">
@@ -6889,6 +7372,9 @@
         <f t="array" ref="N98">SECTION_NAME(B98)</f>
         <v>response-6</v>
       </c>
+      <c r="P98" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="37">
@@ -6914,6 +7400,9 @@
         <f t="array" ref="N99">SECTION_NAME(B99)</f>
         <v>response-6</v>
       </c>
+      <c r="P99" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="37">
@@ -6939,6 +7428,9 @@
         <f t="array" ref="N100">SECTION_NAME(B100)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P100" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="101" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="37">
@@ -6964,6 +7456,9 @@
         <f t="array" ref="N101">SECTION_NAME(B101)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P101" s="6" t="s">
+        <v>621</v>
+      </c>
       <c r="T101" s="6" t="s">
         <v>135</v>
       </c>
@@ -6992,6 +7487,9 @@
         <f t="array" ref="N102">SECTION_NAME(B102)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P102" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="T102" s="6" t="s">
         <v>137</v>
       </c>
@@ -7012,6 +7510,9 @@
       <c r="E103" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P103" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="104" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="37">
@@ -7037,6 +7538,9 @@
         <f t="array" ref="N104">SECTION_NAME(B104)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P104" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="105" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="37">
@@ -7062,6 +7566,9 @@
         <f t="array" ref="N105">SECTION_NAME(B105)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P105" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="106" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="37">
@@ -7087,6 +7594,9 @@
         <f t="array" ref="N106">SECTION_NAME(B106)</f>
         <v>request-7</v>
       </c>
+      <c r="P106" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="107" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A107" s="37">
@@ -7112,6 +7622,9 @@
         <f t="array" ref="N107">SECTION_NAME(B107)</f>
         <v>request-7</v>
       </c>
+      <c r="P107" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="108" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="37">
@@ -7137,6 +7650,9 @@
         <f t="array" ref="N108">SECTION_NAME(B108)</f>
         <v>request-7</v>
       </c>
+      <c r="P108" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="109" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="37">
@@ -7162,6 +7678,9 @@
         <f t="array" ref="N109">SECTION_NAME(B109)</f>
         <v>request-7</v>
       </c>
+      <c r="P109" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="110" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A110" s="37">
@@ -7187,6 +7706,9 @@
         <f t="array" ref="N110">SECTION_NAME(B110)</f>
         <v>request-7</v>
       </c>
+      <c r="P110" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="T110" s="6" t="s">
         <v>146</v>
       </c>
@@ -7215,6 +7737,9 @@
         <f t="array" ref="N111">SECTION_NAME(B111)</f>
         <v>response-7</v>
       </c>
+      <c r="P111" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="112" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="37">
@@ -7240,8 +7765,11 @@
         <f t="array" ref="N112">SECTION_NAME(B112)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P112" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="37">
         <v>112</v>
       </c>
@@ -7265,8 +7793,11 @@
         <f t="array" ref="N113">SECTION_NAME(B113)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P113" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" s="37">
         <v>113</v>
       </c>
@@ -7290,8 +7821,11 @@
         <f t="array" ref="N114">SECTION_NAME(B114)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P114" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="37">
         <v>114</v>
       </c>
@@ -7315,8 +7849,11 @@
         <f t="array" ref="N115">SECTION_NAME(B115)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P115" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="37">
         <v>115</v>
       </c>
@@ -7340,8 +7877,11 @@
         <f t="array" ref="N116">SECTION_NAME(B116)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P116" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="37">
         <v>116</v>
       </c>
@@ -7365,8 +7905,11 @@
         <f t="array" ref="N117">SECTION_NAME(B117)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P117" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="37">
         <v>117</v>
       </c>
@@ -7390,8 +7933,11 @@
         <f t="array" ref="N118">SECTION_NAME(B118)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P118" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="37">
         <v>118</v>
       </c>
@@ -7415,8 +7961,11 @@
         <f t="array" ref="N119">SECTION_NAME(B119)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="P119" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" s="37">
         <v>119</v>
       </c>
@@ -7432,8 +7981,11 @@
       <c r="E120" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P120" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="37">
         <v>120</v>
       </c>
@@ -7457,8 +8009,11 @@
         <f t="array" ref="N121">SECTION_NAME(B121)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P121" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A122" s="37">
         <v>121</v>
       </c>
@@ -7482,8 +8037,11 @@
         <f t="array" ref="N122">SECTION_NAME(B122)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P122" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="37">
         <v>122</v>
       </c>
@@ -7507,8 +8065,11 @@
         <f t="array" ref="N123">SECTION_NAME(B123)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P123" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="37">
         <v>123</v>
       </c>
@@ -7524,8 +8085,11 @@
       <c r="E124" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P124" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="37">
         <v>124</v>
       </c>
@@ -7549,8 +8113,11 @@
         <f t="array" ref="N125">SECTION_NAME(B125)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P125" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A126" s="37">
         <v>125</v>
       </c>
@@ -7574,8 +8141,11 @@
         <f t="array" ref="N126">SECTION_NAME(B126)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P126" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A127" s="37">
         <v>126</v>
       </c>
@@ -7599,8 +8169,11 @@
         <f t="array" ref="N127">SECTION_NAME(B127)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P127" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" s="37">
         <v>127</v>
       </c>
@@ -7624,6 +8197,9 @@
         <f t="array" ref="N128">SECTION_NAME(B128)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
+      <c r="P128" s="6" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="129" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A129" s="37">
@@ -7649,6 +8225,9 @@
         <f t="array" ref="N129">SECTION_NAME(B129)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
+      <c r="P129" s="6" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="130" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="37">
@@ -7674,6 +8253,9 @@
         <f t="array" ref="N130">SECTION_NAME(B130)</f>
         <v>scopes-for-requesting-clinical-data</v>
       </c>
+      <c r="P130" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="131" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A131" s="37">
@@ -7691,6 +8273,9 @@
       <c r="E131" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P131" s="6" t="s">
+        <v>622</v>
+      </c>
       <c r="T131" s="6" t="s">
         <v>167</v>
       </c>
@@ -7719,6 +8304,9 @@
         <f t="array" ref="N132">SECTION_NAME(B132)</f>
         <v>scope-equivalence</v>
       </c>
+      <c r="P132" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="133" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A133" s="37">
@@ -7739,6 +8327,9 @@
       <c r="G133" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="P133" s="6" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="134" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="37">
@@ -7756,6 +8347,9 @@
       <c r="E134" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P134" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="135" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="37">
@@ -7773,6 +8367,9 @@
       <c r="E135" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P135" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="136" spans="1:20" ht="255" x14ac:dyDescent="0.2">
       <c r="A136" s="37">
@@ -7790,6 +8387,9 @@
       <c r="E136" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P136" s="6" t="s">
+        <v>623</v>
+      </c>
       <c r="T136" s="6" t="s">
         <v>172</v>
       </c>
@@ -7810,6 +8410,9 @@
       <c r="E137" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P137" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="138" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" s="37">
@@ -7827,6 +8430,9 @@
       <c r="E138" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P138" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="139" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="37">
@@ -7844,6 +8450,9 @@
       <c r="E139" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P139" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="140" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="37">
@@ -7869,6 +8478,9 @@
         <f t="array" ref="N140">SECTION_NAME(B140)</f>
         <v>patient-specific-scopes</v>
       </c>
+      <c r="P140" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="141" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" s="37">
@@ -7886,6 +8498,9 @@
       <c r="E141" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P141" s="6" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="142" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" s="37">
@@ -7903,6 +8518,9 @@
       <c r="E142" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P142" s="6" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="143" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A143" s="37">
@@ -7920,6 +8538,9 @@
       <c r="E143" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P143" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="144" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="37">
@@ -7937,6 +8558,9 @@
       <c r="E144" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P144" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="145" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="37">
@@ -7954,6 +8578,9 @@
       <c r="E145" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P145" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="146" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="37">
@@ -7971,6 +8598,9 @@
       <c r="E146" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P146" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="147" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" s="37">
@@ -7988,6 +8618,9 @@
       <c r="E147" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P147" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="148" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A148" s="37">
@@ -8005,6 +8638,9 @@
       <c r="E148" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P148" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="149" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="37">
@@ -8030,6 +8666,9 @@
         <f t="array" ref="N149">SECTION_NAME(B149)</f>
         <v>wildcard-scopes</v>
       </c>
+      <c r="P149" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="150" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" s="37">
@@ -8047,6 +8686,9 @@
       <c r="E150" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P150" s="6" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="151" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" s="37">
@@ -8064,6 +8706,9 @@
       <c r="E151" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P151" s="6" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="152" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" s="37">
@@ -8081,6 +8726,9 @@
       <c r="E152" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P152" s="6" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="153" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A153" s="37">
@@ -8098,6 +8746,9 @@
       <c r="E153" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P153" s="6" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="154" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A154" s="37">
@@ -8115,6 +8766,9 @@
       <c r="E154" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P154" s="6" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="155" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="39">
@@ -8133,7 +8787,7 @@
         <v>56</v>
       </c>
       <c r="T155" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="156" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8153,7 +8807,7 @@
         <v>27</v>
       </c>
       <c r="T156" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -8173,7 +8827,7 @@
         <v>27</v>
       </c>
       <c r="T157" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8201,7 +8855,7 @@
         <v>scopes-for-requesting-context-data</v>
       </c>
       <c r="T158" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8229,7 +8883,7 @@
         <v>scopes-for-requesting-context-data</v>
       </c>
       <c r="T159" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="160" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -8257,7 +8911,7 @@
         <v>scopes-for-requesting-context-data</v>
       </c>
       <c r="T160" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8285,7 +8939,7 @@
         <v>scopes-for-requesting-context-data</v>
       </c>
       <c r="T161" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -8312,6 +8966,9 @@
         <f t="array" ref="N162">SECTION_NAME(B162)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P162" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="T162" s="6" t="s">
         <v>200</v>
       </c>
@@ -8340,6 +8997,9 @@
         <f t="array" ref="N163">SECTION_NAME(B163)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P163" s="6" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="164" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="37">
@@ -8365,6 +9025,9 @@
         <f t="array" ref="N164">SECTION_NAME(B164)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P164" s="6" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="165" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="37">
@@ -8390,6 +9053,9 @@
         <f t="array" ref="N165">SECTION_NAME(B165)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P165" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="166" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" s="37">
@@ -8415,6 +9081,9 @@
         <f t="array" ref="N166">SECTION_NAME(B166)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P166" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="167" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="37">
@@ -8440,6 +9109,9 @@
         <f t="array" ref="N167">SECTION_NAME(B167)</f>
         <v>standalone-apps</v>
       </c>
+      <c r="P167" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="168" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A168" s="37">
@@ -8465,6 +9137,9 @@
         <f t="array" ref="N168">SECTION_NAME(B168)</f>
         <v>standalone-apps</v>
       </c>
+      <c r="P168" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="169" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="37">
@@ -8490,6 +9165,9 @@
         <f t="array" ref="N169">SECTION_NAME(B169)</f>
         <v>launch-context-arrives-with-your-access_token</v>
       </c>
+      <c r="P169" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="170" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A170" s="37">
@@ -8507,6 +9185,9 @@
       <c r="E170" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P170" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="171" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" s="37">
@@ -8524,6 +9205,9 @@
       <c r="E171" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P171" s="6" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="172" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A172" s="37">
@@ -8541,6 +9225,9 @@
       <c r="E172" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P172" s="6" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="173" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A173" s="37">
@@ -8558,6 +9245,9 @@
       <c r="E173" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P173" s="6" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="174" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="37">
@@ -8575,6 +9265,9 @@
       <c r="E174" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P174" s="6" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="175" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A175" s="37">
@@ -8592,6 +9285,9 @@
       <c r="E175" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P175" s="6" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="176" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" s="37">
@@ -8609,6 +9305,9 @@
       <c r="E176" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P176" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="177" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="37">
@@ -8626,6 +9325,9 @@
       <c r="E177" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P177" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="178" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A178" s="39">
@@ -8644,7 +9346,7 @@
         <v>56</v>
       </c>
       <c r="T178" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="179" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8664,7 +9366,7 @@
         <v>56</v>
       </c>
       <c r="T179" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -8684,7 +9386,7 @@
         <v>56</v>
       </c>
       <c r="T180" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8704,7 +9406,7 @@
         <v>56</v>
       </c>
       <c r="T181" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="182" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -8724,7 +9426,7 @@
         <v>56</v>
       </c>
       <c r="T182" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8744,7 +9446,7 @@
         <v>56</v>
       </c>
       <c r="T183" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8764,7 +9466,7 @@
         <v>56</v>
       </c>
       <c r="T184" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="185" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -8784,7 +9486,7 @@
         <v>56</v>
       </c>
       <c r="T185" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8804,7 +9506,7 @@
         <v>56</v>
       </c>
       <c r="T186" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="187" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8824,7 +9526,7 @@
         <v>56</v>
       </c>
       <c r="T187" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -8844,7 +9546,7 @@
         <v>56</v>
       </c>
       <c r="T188" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="189" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8864,7 +9566,7 @@
         <v>56</v>
       </c>
       <c r="T189" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8884,7 +9586,7 @@
         <v>56</v>
       </c>
       <c r="T190" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="191" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8904,7 +9606,7 @@
         <v>56</v>
       </c>
       <c r="T191" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="192" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -8924,7 +9626,7 @@
         <v>27</v>
       </c>
       <c r="T192" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8944,7 +9646,7 @@
         <v>56</v>
       </c>
       <c r="T193" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -8971,6 +9673,9 @@
         <f t="array" ref="N194">SECTION_NAME(B194)</f>
         <v>launch-intent</v>
       </c>
+      <c r="P194" s="6" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="195" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" s="37">
@@ -8988,6 +9693,9 @@
       <c r="E195" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P195" s="47" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="196" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" s="37">
@@ -9013,6 +9721,9 @@
         <f t="array" ref="N196">SECTION_NAME(B196)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P196" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="197" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A197" s="37">
@@ -9033,6 +9744,9 @@
       <c r="G197" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="P197" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="198" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" s="39">
@@ -9059,7 +9773,7 @@
         <v>scopes-for-requesting-identity-data</v>
       </c>
       <c r="T198" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="199" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -9078,6 +9792,9 @@
       <c r="E199" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P199" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="200" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="37">
@@ -9095,6 +9812,9 @@
       <c r="E200" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P200" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="201" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A201" s="37">
@@ -9120,6 +9840,9 @@
         <f t="array" ref="N201">SECTION_NAME(B201)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P201" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="202" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" s="37">
@@ -9137,6 +9860,9 @@
       <c r="E202" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P202" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="203" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="37">
@@ -9162,6 +9888,9 @@
         <f t="array" ref="N203">SECTION_NAME(B203)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P203" s="6" t="s">
+        <v>616</v>
+      </c>
       <c r="T203" s="6" t="s">
         <v>244</v>
       </c>
@@ -9190,6 +9919,9 @@
         <f t="array" ref="N204">SECTION_NAME(B204)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P204" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="205" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A205" s="37">
@@ -9215,6 +9947,9 @@
         <f t="array" ref="N205">SECTION_NAME(B205)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P205" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="206" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A206" s="37">
@@ -9240,6 +9975,9 @@
         <f t="array" ref="N206">SECTION_NAME(B206)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P206" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="207" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A207" s="37">
@@ -9265,6 +10003,9 @@
         <f t="array" ref="N207">SECTION_NAME(B207)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P207" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="208" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" s="37">
@@ -9290,6 +10031,9 @@
         <f t="array" ref="N208">SECTION_NAME(B208)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P208" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="209" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" s="37">
@@ -9307,6 +10051,9 @@
       <c r="E209" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P209" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="210" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" s="37">
@@ -9332,6 +10079,9 @@
         <f t="array" ref="N210">SECTION_NAME(B210)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P210" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="211" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" s="37">
@@ -9357,6 +10107,9 @@
         <f t="array" ref="N211">SECTION_NAME(B211)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P211" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="212" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="37">
@@ -9382,6 +10135,9 @@
         <f t="array" ref="N212">SECTION_NAME(B212)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P212" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="213" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" s="37">
@@ -9407,6 +10163,9 @@
         <f t="array" ref="N213">SECTION_NAME(B213)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P213" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="214" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A214" s="37">
@@ -9432,6 +10191,9 @@
         <f t="array" ref="N214">SECTION_NAME(B214)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P214" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="215" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A215" s="37">
@@ -9457,6 +10219,9 @@
         <f t="array" ref="N215">SECTION_NAME(B215)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P215" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="216" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="37">
@@ -9482,6 +10247,9 @@
         <f t="array" ref="N216">SECTION_NAME(B216)</f>
         <v>scopes-for-requesting-a-refresh-token</v>
       </c>
+      <c r="P216" s="6" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="217" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A217" s="37">
@@ -9507,6 +10275,9 @@
         <f t="array" ref="N217">SECTION_NAME(B217)</f>
         <v>scopes-for-requesting-a-refresh-token</v>
       </c>
+      <c r="P217" s="6" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="218" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A218" s="37">
@@ -9524,6 +10295,9 @@
       <c r="E218" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P218" s="6" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="219" spans="1:20" ht="204" x14ac:dyDescent="0.2">
       <c r="A219" s="37">
@@ -9549,6 +10323,9 @@
         <f t="array" ref="N219">SECTION_NAME(B219)</f>
         <v>steps-for-using-an-id-token</v>
       </c>
+      <c r="P219" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="220" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A220" s="37">
@@ -9574,6 +10351,9 @@
         <f t="array" ref="N220">SECTION_NAME(B220)</f>
         <v>appendix-uri-representation-of-scopes</v>
       </c>
+      <c r="P220" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="221" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A221" s="37">
@@ -9599,6 +10379,9 @@
         <f t="array" ref="N221">SECTION_NAME(B221)</f>
         <v>appendix-uri-representation-of-scopes</v>
       </c>
+      <c r="P221" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="222" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="37">
@@ -9736,6 +10519,9 @@
         <f t="array" ref="N226">SECTION_NAME(B226)</f>
         <v>register-smart-backend-service-communicating-public-keys</v>
       </c>
+      <c r="P226" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="227" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" s="37">
@@ -9761,6 +10547,9 @@
         <f t="array" ref="N227">SECTION_NAME(B227)</f>
         <v>retrieve-well-knownsmart-configuration</v>
       </c>
+      <c r="P227" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="228" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="37">
@@ -9786,6 +10575,9 @@
         <f t="array" ref="N228">SECTION_NAME(B228)</f>
         <v>request</v>
       </c>
+      <c r="P228" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="229" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A229" s="37">
@@ -9811,6 +10603,9 @@
         <f t="array" ref="N229">SECTION_NAME(B229)</f>
         <v>response</v>
       </c>
+      <c r="P229" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="230" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="37">
@@ -9836,6 +10631,9 @@
         <f t="array" ref="N230">SECTION_NAME(B230)</f>
         <v>obtain-acess-token</v>
       </c>
+      <c r="P230" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="231" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A231" s="37">
@@ -9861,6 +10659,9 @@
         <f t="array" ref="N231">SECTION_NAME(B231)</f>
         <v>request-1</v>
       </c>
+      <c r="P231" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="232" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" s="37">
@@ -9886,6 +10687,9 @@
         <f t="array" ref="N232">SECTION_NAME(B232)</f>
         <v>request-1</v>
       </c>
+      <c r="P232" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="233" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="37">
@@ -9911,6 +10715,9 @@
         <f t="array" ref="N233">SECTION_NAME(B233)</f>
         <v>request-1</v>
       </c>
+      <c r="P233" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="234" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A234" s="37">
@@ -9936,6 +10743,9 @@
         <f t="array" ref="N234">SECTION_NAME(B234)</f>
         <v>request-1</v>
       </c>
+      <c r="P234" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="235" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A235" s="37">
@@ -9961,6 +10771,9 @@
         <f t="array" ref="N235">SECTION_NAME(B235)</f>
         <v>request-1</v>
       </c>
+      <c r="P235" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="236" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A236" s="37">
@@ -9986,6 +10799,9 @@
         <f t="array" ref="N236">SECTION_NAME(B236)</f>
         <v>request-1</v>
       </c>
+      <c r="P236" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="237" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A237" s="37">
@@ -10011,6 +10827,9 @@
         <f t="array" ref="N237">SECTION_NAME(B237)</f>
         <v>request-1</v>
       </c>
+      <c r="P237" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="238" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A238" s="37">
@@ -10036,6 +10855,9 @@
         <f t="array" ref="N238">SECTION_NAME(B238)</f>
         <v>request-1</v>
       </c>
+      <c r="P238" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="239" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A239" s="37">
@@ -10061,6 +10883,9 @@
         <f t="array" ref="N239">SECTION_NAME(B239)</f>
         <v>request-1</v>
       </c>
+      <c r="P239" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="240" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A240" s="37">
@@ -10078,6 +10903,9 @@
       <c r="E240" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P240" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="241" spans="1:20" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="43">
@@ -10087,16 +10915,19 @@
         <v>578</v>
       </c>
       <c r="C241" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="D241" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P241" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="T241" s="46" t="s">
         <v>589</v>
-      </c>
-      <c r="D241" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E241" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="T241" s="46" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="242" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -10115,6 +10946,9 @@
       <c r="E242" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P242" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="243" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A243" s="37">
@@ -10132,6 +10966,9 @@
       <c r="E243" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P243" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="244" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A244" s="37">
@@ -10157,6 +10994,9 @@
         <f t="array" ref="N244">SECTION_NAME(B244)</f>
         <v>enforce-authorization</v>
       </c>
+      <c r="P244" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="245" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" s="37">
@@ -10182,6 +11022,9 @@
         <f t="array" ref="N245">SECTION_NAME(B245)</f>
         <v>enforce-authorization</v>
       </c>
+      <c r="P245" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="246" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A246" s="37">
@@ -10207,6 +11050,9 @@
         <f t="array" ref="N246">SECTION_NAME(B246)</f>
         <v>enforce-authorization</v>
       </c>
+      <c r="P246" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="247" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A247" s="37">
@@ -10232,6 +11078,9 @@
         <f t="array" ref="N247">SECTION_NAME(B247)</f>
         <v>enforce-authorization</v>
       </c>
+      <c r="P247" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="248" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="37">
@@ -10257,6 +11106,9 @@
         <f t="array" ref="N248">SECTION_NAME(B248)</f>
         <v>enforce-authorization</v>
       </c>
+      <c r="P248" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="249" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A249" s="37">
@@ -10274,6 +11126,9 @@
       <c r="E249" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P249" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="250" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="37">
@@ -10291,6 +11146,9 @@
       <c r="E250" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="P250" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="251" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A251" s="37">
@@ -10316,6 +11174,9 @@
         <f t="array" ref="N251">SECTION_NAME(B251)</f>
         <v>evaluate-requested-access</v>
       </c>
+      <c r="P251" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="252" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="37">
@@ -10341,6 +11202,9 @@
         <f t="array" ref="N252">SECTION_NAME(B252)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P252" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="253" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A253" s="37">
@@ -10366,6 +11230,9 @@
         <f t="array" ref="N253">SECTION_NAME(B253)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P253" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="254" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A254" s="37">
@@ -10391,6 +11258,9 @@
         <f t="array" ref="N254">SECTION_NAME(B254)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P254" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="255" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A255" s="37">
@@ -10416,6 +11286,9 @@
         <f t="array" ref="N255">SECTION_NAME(B255)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P255" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="256" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A256" s="37">
@@ -10441,6 +11314,9 @@
         <f t="array" ref="N256">SECTION_NAME(B256)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P256" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="257" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A257" s="37">
@@ -10466,6 +11342,9 @@
         <f t="array" ref="N257">SECTION_NAME(B257)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P257" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="258" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A258" s="37">
@@ -10491,6 +11370,9 @@
         <f t="array" ref="N258">SECTION_NAME(B258)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P258" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="259" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A259" s="37">
@@ -10516,6 +11398,9 @@
         <f t="array" ref="N259">SECTION_NAME(B259)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P259" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="260" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A260" s="37">
@@ -10541,6 +11426,9 @@
         <f t="array" ref="N260">SECTION_NAME(B260)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P260" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="261" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A261" s="37">
@@ -10566,6 +11454,9 @@
         <f t="array" ref="N261">SECTION_NAME(B261)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P261" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="262" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A262" s="37">
@@ -10591,6 +11482,9 @@
         <f t="array" ref="N262">SECTION_NAME(B262)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P262" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="263" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="37">
@@ -10616,6 +11510,9 @@
         <f t="array" ref="N263">SECTION_NAME(B263)</f>
         <v>issue-access-token</v>
       </c>
+      <c r="P263" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="264" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A264" s="39">
@@ -10634,7 +11531,7 @@
         <v>27</v>
       </c>
       <c r="T264" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -10653,6 +11550,9 @@
       <c r="E265" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="P265" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="266" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="37">
@@ -10678,6 +11578,9 @@
         <f t="array" ref="N266">SECTION_NAME(B266)</f>
         <v>response-2</v>
       </c>
+      <c r="P266" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="267" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A267" s="37">
@@ -10703,6 +11606,9 @@
         <f t="array" ref="N267">SECTION_NAME(B267)</f>
         <v>response-2</v>
       </c>
+      <c r="P267" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="268" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A268" s="37">
@@ -10728,6 +11634,9 @@
         <f t="array" ref="N268">SECTION_NAME(B268)</f>
         <v>response-2</v>
       </c>
+      <c r="P268" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="269" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A269" s="37">
@@ -10753,6 +11662,9 @@
         <f t="array" ref="N269">SECTION_NAME(B269)</f>
         <v>response-2</v>
       </c>
+      <c r="P269" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="270" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A270" s="39">
@@ -10778,6 +11690,9 @@
         <f t="array" ref="N270">SECTION_NAME(B270)</f>
         <v>token-introspection</v>
       </c>
+      <c r="P270" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="271" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A271" s="39">
@@ -10795,6 +11710,9 @@
       <c r="E271" s="39" t="s">
         <v>27</v>
       </c>
+      <c r="P271" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="272" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" s="39">
@@ -10812,6 +11730,9 @@
       <c r="E272" s="39" t="s">
         <v>56</v>
       </c>
+      <c r="P272" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="273" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A273" s="39">
@@ -10837,6 +11758,9 @@
         <f t="array" ref="N273">SECTION_NAME(B273)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P273" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="274" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A274" s="39">
@@ -10862,6 +11786,9 @@
         <f t="array" ref="N274">SECTION_NAME(B274)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P274" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="275" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A275" s="39">
@@ -10887,6 +11814,9 @@
         <f t="array" ref="N275">SECTION_NAME(B275)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P275" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="276" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A276" s="39">
@@ -10912,6 +11842,9 @@
         <f t="array" ref="N276">SECTION_NAME(B276)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P276" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="277" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A277" s="39">
@@ -10937,6 +11870,9 @@
         <f t="array" ref="N277">SECTION_NAME(B277)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P277" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="278" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A278" s="39">
@@ -10962,6 +11898,9 @@
         <f t="array" ref="N278">SECTION_NAME(B278)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P278" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="279" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A279" s="39">
@@ -10987,6 +11926,9 @@
         <f t="array" ref="N279">SECTION_NAME(B279)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P279" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="280" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A280" s="39">
@@ -11012,6 +11954,9 @@
         <f t="array" ref="N280">SECTION_NAME(B280)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P280" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="281" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A281" s="39">
@@ -11037,6 +11982,9 @@
         <f t="array" ref="N281">SECTION_NAME(B281)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P281" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="282" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A282" s="39">
@@ -11054,6 +12002,9 @@
       <c r="E282" s="39" t="s">
         <v>56</v>
       </c>
+      <c r="P282" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="283" spans="1:20" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A283" s="39">
@@ -11079,6 +12030,9 @@
         <f t="array" ref="N283">SECTION_NAME(B283)</f>
         <v>authorization-to-perform-token-introspection</v>
       </c>
+      <c r="P283" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="284" spans="1:20" s="39" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A284" s="39">
@@ -11096,13 +12050,16 @@
       <c r="E284" s="39" t="s">
         <v>56</v>
       </c>
+      <c r="P284" s="39" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="285" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
       <c r="B285" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C285" s="37" t="s">
         <v>327</v>
@@ -11121,6 +12078,9 @@
         <f t="array" ref="N285">SECTION_NAME(B285)</f>
         <v>use-this-profile-when-the-following-conditions-apply</v>
       </c>
+      <c r="P285" s="6" t="s">
+        <v>635</v>
+      </c>
       <c r="T285" s="6" t="s">
         <v>328</v>
       </c>
@@ -11130,7 +12090,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C286" s="37" t="s">
         <v>329</v>
@@ -11149,13 +12109,16 @@
         <f t="array" ref="N286">SECTION_NAME(B286)</f>
         <v>advertising-server-support-for-this-profile</v>
       </c>
+      <c r="P286" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="287" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>286</v>
       </c>
       <c r="B287" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C287" s="37" t="s">
         <v>330</v>
@@ -11165,6 +12128,9 @@
       </c>
       <c r="E287" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="P287" s="6" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="288" spans="1:20" ht="80" x14ac:dyDescent="0.2">
@@ -11172,7 +12138,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C288" s="37" t="s">
         <v>331</v>
@@ -11183,13 +12149,16 @@
       <c r="E288" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P288" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
       <c r="B289" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C289" s="37" t="s">
         <v>332</v>
@@ -11200,13 +12169,16 @@
       <c r="E289" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P289" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
       <c r="B290" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C290" s="37" t="s">
         <v>333</v>
@@ -11217,13 +12189,16 @@
       <c r="E290" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P290" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
       <c r="B291" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C291" s="37" t="s">
         <v>334</v>
@@ -11242,13 +12217,16 @@
         <f t="array" ref="N291">SECTION_NAME(B291)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P291" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
       <c r="B292" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C292" s="37" t="s">
         <v>335</v>
@@ -11267,13 +12245,16 @@
         <f t="array" ref="N292">SECTION_NAME(B292)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P292" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
       <c r="B293" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C293" s="37" t="s">
         <v>336</v>
@@ -11292,13 +12273,16 @@
         <f t="array" ref="N293">SECTION_NAME(B293)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P293" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
       <c r="B294" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C294" s="37" t="s">
         <v>337</v>
@@ -11317,13 +12301,16 @@
         <f t="array" ref="N294">SECTION_NAME(B294)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P294" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
       <c r="B295" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C295" s="37" t="s">
         <v>338</v>
@@ -11342,13 +12329,16 @@
         <f t="array" ref="N295">SECTION_NAME(B295)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P295" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
       <c r="B296" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C296" s="37" t="s">
         <v>339</v>
@@ -11367,13 +12357,16 @@
         <f t="array" ref="N296">SECTION_NAME(B296)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P296" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
       <c r="B297" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C297" s="37" t="s">
         <v>340</v>
@@ -11392,13 +12385,16 @@
         <f t="array" ref="N297">SECTION_NAME(B297)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P297" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C298" s="37" t="s">
         <v>341</v>
@@ -11417,13 +12413,16 @@
         <f t="array" ref="N298">SECTION_NAME(B298)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P298" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
       <c r="B299" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C299" s="37" t="s">
         <v>342</v>
@@ -11442,13 +12441,16 @@
         <f t="array" ref="N299">SECTION_NAME(B299)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P299" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
       <c r="B300" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C300" s="37" t="s">
         <v>343</v>
@@ -11459,13 +12461,16 @@
       <c r="E300" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P300" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
       <c r="B301" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C301" s="37" t="s">
         <v>344</v>
@@ -11476,13 +12481,16 @@
       <c r="E301" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P301" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
       <c r="B302" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C302" s="37" t="s">
         <v>345</v>
@@ -11501,13 +12509,16 @@
         <f t="array" ref="N302">SECTION_NAME(B302)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P302" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
       <c r="B303" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C303" s="37" t="s">
         <v>346</v>
@@ -11526,13 +12537,16 @@
         <f t="array" ref="N303">SECTION_NAME(B303)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P303" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C304" s="37" t="s">
         <v>347</v>
@@ -11551,13 +12565,16 @@
         <f t="array" ref="N304">SECTION_NAME(B304)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P304" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
       <c r="B305" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C305" s="37" t="s">
         <v>348</v>
@@ -11576,13 +12593,16 @@
         <f t="array" ref="N305">SECTION_NAME(B305)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P305" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
       <c r="B306" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C306" s="37" t="s">
         <v>349</v>
@@ -11601,13 +12621,16 @@
         <f t="array" ref="N306">SECTION_NAME(B306)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P306" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
       <c r="B307" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C307" s="37" t="s">
         <v>350</v>
@@ -11626,13 +12649,16 @@
         <f t="array" ref="N307">SECTION_NAME(B307)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P307" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
       <c r="B308" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C308" s="37" t="s">
         <v>351</v>
@@ -11651,13 +12677,16 @@
         <f t="array" ref="N308">SECTION_NAME(B308)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P308" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
       <c r="B309" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C309" s="37" t="s">
         <v>352</v>
@@ -11676,13 +12705,16 @@
         <f t="array" ref="N309">SECTION_NAME(B309)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P309" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
       <c r="B310" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C310" s="37" t="s">
         <v>353</v>
@@ -11701,13 +12733,16 @@
         <f t="array" ref="N310">SECTION_NAME(B310)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P310" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
       <c r="B311" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C311" s="37" t="s">
         <v>354</v>
@@ -11726,13 +12761,16 @@
         <f t="array" ref="N311">SECTION_NAME(B311)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P311" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
       <c r="B312" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C312" s="37" t="s">
         <v>355</v>
@@ -11751,13 +12789,16 @@
         <f t="array" ref="N312">SECTION_NAME(B312)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P312" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C313" s="37" t="s">
         <v>356</v>
@@ -11776,13 +12817,16 @@
         <f t="array" ref="N313">SECTION_NAME(B313)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P313" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C314" s="37" t="s">
         <v>357</v>
@@ -11801,13 +12845,16 @@
         <f t="array" ref="N314">SECTION_NAME(B314)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P314" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
       <c r="B315" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C315" s="37" t="s">
         <v>358</v>
@@ -11826,13 +12873,16 @@
         <f t="array" ref="N315">SECTION_NAME(B315)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P315" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
       <c r="B316" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C316" s="37" t="s">
         <v>359</v>
@@ -11851,13 +12901,16 @@
         <f t="array" ref="N316">SECTION_NAME(B316)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P316" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
       <c r="B317" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C317" s="37" t="s">
         <v>360</v>
@@ -11876,13 +12929,16 @@
         <f t="array" ref="N317">SECTION_NAME(B317)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P317" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
       <c r="B318" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C318" s="37" t="s">
         <v>361</v>
@@ -11901,13 +12957,16 @@
         <f t="array" ref="N318">SECTION_NAME(B318)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P318" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
       <c r="B319" s="35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C319" s="37" t="s">
         <v>362</v>
@@ -11926,13 +12985,16 @@
         <f t="array" ref="N319">SECTION_NAME(B319)</f>
         <v>authenticating-to-the-token-endpoint</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P319" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C320" s="37" t="s">
         <v>363</v>
@@ -11951,13 +13013,16 @@
         <f t="array" ref="N320">SECTION_NAME(B320)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P320" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C321" s="37" t="s">
         <v>364</v>
@@ -11976,13 +13041,16 @@
         <f t="array" ref="N321">SECTION_NAME(B321)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P321" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C322" s="37" t="s">
         <v>365</v>
@@ -12001,13 +13069,16 @@
         <f t="array" ref="N322">SECTION_NAME(B322)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P322" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C323" s="37" t="s">
         <v>366</v>
@@ -12026,13 +13097,16 @@
         <f t="array" ref="N323">SECTION_NAME(B323)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P323" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C324" s="37" t="s">
         <v>367</v>
@@ -12051,13 +13125,16 @@
         <f t="array" ref="N324">SECTION_NAME(B324)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P324" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
       <c r="B325" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C325" s="37" t="s">
         <v>368</v>
@@ -12076,13 +13153,16 @@
         <f t="array" ref="N325">SECTION_NAME(B325)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P325" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
       <c r="B326" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C326" s="37" t="s">
         <v>369</v>
@@ -12093,13 +13173,16 @@
       <c r="E326" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P326" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C327" s="37" t="s">
         <v>370</v>
@@ -12110,13 +13193,16 @@
       <c r="E327" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P327" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
       <c r="B328" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C328" s="37" t="s">
         <v>371</v>
@@ -12135,13 +13221,16 @@
         <f t="array" ref="N328">SECTION_NAME(B328)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P328" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>328</v>
       </c>
       <c r="B329" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C329" s="37" t="s">
         <v>372</v>
@@ -12160,13 +13249,16 @@
         <f t="array" ref="N329">SECTION_NAME(B329)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P329" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>329</v>
       </c>
       <c r="B330" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C330" s="37" t="s">
         <v>373</v>
@@ -12185,13 +13277,16 @@
         <f t="array" ref="N330">SECTION_NAME(B330)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P330" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
       <c r="B331" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C331" s="37" t="s">
         <v>374</v>
@@ -12210,13 +13305,16 @@
         <f t="array" ref="N331">SECTION_NAME(B331)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P331" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>331</v>
       </c>
       <c r="B332" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C332" s="37" t="s">
         <v>375</v>
@@ -12235,13 +13333,16 @@
         <f t="array" ref="N332">SECTION_NAME(B332)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P332" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
       <c r="B333" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C333" s="37" t="s">
         <v>376</v>
@@ -12260,13 +13361,16 @@
         <f t="array" ref="N333">SECTION_NAME(B333)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P333" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>333</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C334" s="37" t="s">
         <v>377</v>
@@ -12285,13 +13389,16 @@
         <f t="array" ref="N334">SECTION_NAME(B334)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P334" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
       <c r="B335" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C335" s="37" t="s">
         <v>378</v>
@@ -12310,13 +13417,16 @@
         <f t="array" ref="N335">SECTION_NAME(B335)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P335" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
       <c r="B336" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C336" s="37" t="s">
         <v>379</v>
@@ -12335,13 +13445,16 @@
         <f t="array" ref="N336">SECTION_NAME(B336)</f>
         <v>signature-verification</v>
       </c>
+      <c r="P336" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="337" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
       <c r="B337" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C337" s="37" t="s">
         <v>380</v>
@@ -12360,13 +13473,16 @@
         <f t="array" ref="N337">SECTION_NAME(B337)</f>
         <v>signature-verification</v>
       </c>
+      <c r="P337" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="338" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
       <c r="B338" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C338" s="37" t="s">
         <v>381</v>
@@ -12385,13 +13501,16 @@
         <f t="array" ref="N338">SECTION_NAME(B338)</f>
         <v>signature-verification</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="P338" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
       <c r="B339" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C339" s="37" t="s">
         <v>382</v>
@@ -12410,13 +13529,16 @@
         <f t="array" ref="N339">SECTION_NAME(B339)</f>
         <v>signature-verification</v>
       </c>
+      <c r="P339" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="340" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
       <c r="B340" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C340" s="37" t="s">
         <v>383</v>
@@ -12426,6 +13548,9 @@
       </c>
       <c r="E340" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P340" s="6" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="341" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -12433,7 +13558,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C341" s="37" t="s">
         <v>384</v>
@@ -12452,13 +13577,16 @@
         <f t="array" ref="N341">SECTION_NAME(B341)</f>
         <v>response</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="P341" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
       <c r="B342" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C342" s="37" t="s">
         <v>385</v>
@@ -12477,13 +13605,16 @@
         <f t="array" ref="N342">SECTION_NAME(B342)</f>
         <v>response</v>
       </c>
+      <c r="P342" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="343" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>342</v>
       </c>
       <c r="B343" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C343" s="37" t="s">
         <v>386</v>
@@ -12502,13 +13633,16 @@
         <f t="array" ref="N343">SECTION_NAME(B343)</f>
         <v>response</v>
       </c>
+      <c r="P343" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="344" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
       <c r="B344" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C344" s="37" t="s">
         <v>387</v>
@@ -12527,13 +13661,16 @@
         <f t="array" ref="N344">SECTION_NAME(B344)</f>
         <v>profile-audience-and-scope</v>
       </c>
+      <c r="P344" s="6" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="345" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
       <c r="B345" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C345" s="37" t="s">
         <v>388</v>
@@ -12543,6 +13680,9 @@
       </c>
       <c r="E345" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P345" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="346" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -12550,7 +13690,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C346" s="37" t="s">
         <v>389</v>
@@ -12560,6 +13700,9 @@
       </c>
       <c r="E346" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="P346" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="347" spans="1:20" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -12567,7 +13710,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C347" s="37" t="s">
         <v>390</v>
@@ -12586,13 +13729,16 @@
         <f t="array" ref="N347">SECTION_NAME(B347)</f>
         <v>capability-sets</v>
       </c>
+      <c r="P347" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="348" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>347</v>
       </c>
       <c r="B348" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C348" s="37" t="s">
         <v>391</v>
@@ -12617,7 +13763,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C349" s="37" t="s">
         <v>393</v>
@@ -12636,13 +13782,16 @@
         <f t="array" ref="N349">SECTION_NAME(B349)</f>
         <v>patient-access-for-standalone-apps</v>
       </c>
+      <c r="P349" s="6" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="350" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>349</v>
       </c>
       <c r="B350" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C350" s="37" t="s">
         <v>394</v>
@@ -12652,6 +13801,9 @@
       </c>
       <c r="E350" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P350" s="6" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="351" spans="1:20" ht="153" x14ac:dyDescent="0.2">
@@ -12659,7 +13811,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C351" s="37" t="s">
         <v>395</v>
@@ -12669,6 +13821,9 @@
       </c>
       <c r="E351" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P351" s="6" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="352" spans="1:20" ht="187" x14ac:dyDescent="0.2">
@@ -12676,7 +13831,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C352" s="37" t="s">
         <v>396</v>
@@ -12687,13 +13842,16 @@
       <c r="E352" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="P352" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
       <c r="B353" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C353" s="37" t="s">
         <v>398</v>
@@ -12704,13 +13862,16 @@
       <c r="E353" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P353" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
       <c r="B354" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C354" s="37" t="s">
         <v>399</v>
@@ -12721,13 +13882,16 @@
       <c r="E354" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="P354" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
       <c r="B355" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C355" s="37" t="s">
         <v>400</v>
@@ -12738,13 +13902,16 @@
       <c r="E355" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P355" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
       <c r="B356" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C356" s="37" t="s">
         <v>401</v>
@@ -12755,13 +13922,16 @@
       <c r="E356" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="P356" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
       <c r="B357" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C357" s="37" t="s">
         <v>402</v>
@@ -12772,13 +13942,16 @@
       <c r="E357" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="P357" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
       <c r="B358" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C358" s="37" t="s">
         <v>403</v>
@@ -12789,13 +13962,16 @@
       <c r="E358" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P358" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
       <c r="B359" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C359" s="37" t="s">
         <v>404</v>
@@ -12806,13 +13982,16 @@
       <c r="E359" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P359" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
       <c r="B360" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C360" s="37" t="s">
         <v>405</v>
@@ -12823,13 +14002,16 @@
       <c r="E360" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P360" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
       <c r="B361" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C361" s="37" t="s">
         <v>406</v>
@@ -12840,13 +14022,16 @@
       <c r="E361" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P361" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
       <c r="B362" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C362" s="37" t="s">
         <v>407</v>
@@ -12857,13 +14042,16 @@
       <c r="E362" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P362" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
       <c r="B363" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C363" s="37" t="s">
         <v>408</v>
@@ -12874,13 +14062,16 @@
       <c r="E363" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P363" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
       <c r="B364" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C364" s="37" t="s">
         <v>409</v>
@@ -12891,13 +14082,16 @@
       <c r="E364" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P364" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
       <c r="B365" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C365" s="37" t="s">
         <v>410</v>
@@ -12908,13 +14102,16 @@
       <c r="E365" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P365" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
       <c r="B366" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C366" s="37" t="s">
         <v>411</v>
@@ -12925,13 +14122,16 @@
       <c r="E366" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="P366" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
       <c r="B367" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C367" s="37" t="s">
         <v>412</v>
@@ -12942,13 +14142,16 @@
       <c r="E367" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P367" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
       <c r="B368" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C368" s="37" t="s">
         <v>413</v>
@@ -12958,6 +14161,9 @@
       </c>
       <c r="E368" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P368" s="6" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="369" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -12965,7 +14171,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C369" s="37" t="s">
         <v>414</v>
@@ -12975,6 +14181,9 @@
       </c>
       <c r="E369" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P369" s="6" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="370" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -12982,7 +14191,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C370" s="37" t="s">
         <v>415</v>
@@ -12992,6 +14201,9 @@
       </c>
       <c r="E370" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P370" s="6" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="371" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -12999,7 +14211,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C371" s="37" t="s">
         <v>416</v>
@@ -13009,6 +14221,9 @@
       </c>
       <c r="E371" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="P371" s="6" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="372" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -13028,7 +14243,7 @@
         <v>56</v>
       </c>
       <c r="T372" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="373" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -13036,7 +14251,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C373" s="37" t="s">
         <v>419</v>
@@ -13055,16 +14270,19 @@
         <f t="array" ref="N373">SECTION_NAME(B373)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P373" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="374" spans="1:20" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" s="43">
         <v>373</v>
       </c>
       <c r="B374" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="C374" s="45" t="s">
         <v>604</v>
-      </c>
-      <c r="C374" s="45" t="s">
-        <v>605</v>
       </c>
       <c r="D374" s="43" t="s">
         <v>26</v>
@@ -13080,8 +14298,11 @@
         <f t="array" ref="N374">SECTION_NAME(B374)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P374" s="43" t="s">
+        <v>645</v>
+      </c>
       <c r="T374" s="43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="375" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -13089,7 +14310,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C375" s="37" t="s">
         <v>420</v>
@@ -13108,13 +14329,16 @@
         <f t="array" ref="N375">SECTION_NAME(B375)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P375" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="376" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>375</v>
       </c>
       <c r="B376" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C376" s="37" t="s">
         <v>421</v>
@@ -13133,13 +14357,16 @@
         <f t="array" ref="N376">SECTION_NAME(B376)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P376" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="377" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>376</v>
       </c>
       <c r="B377" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C377" s="37" t="s">
         <v>422</v>
@@ -13158,13 +14385,16 @@
         <f t="array" ref="N377">SECTION_NAME(B377)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P377" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="378" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>377</v>
       </c>
       <c r="B378" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C378" s="37" t="s">
         <v>423</v>
@@ -13183,6 +14413,9 @@
         <f t="array" ref="N378">SECTION_NAME(B378)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P378" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="379" spans="1:20" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A379" s="39">
@@ -13209,7 +14442,7 @@
         <v>using-well-known</v>
       </c>
       <c r="T379" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="380" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -13237,7 +14470,7 @@
         <v>using-well-known</v>
       </c>
       <c r="T380" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="381" spans="1:20" ht="48" x14ac:dyDescent="0.2">
@@ -13245,7 +14478,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C381" s="37" t="s">
         <v>426</v>
@@ -13264,13 +14497,16 @@
         <f t="array" ref="N381">SECTION_NAME(B381)</f>
         <v>response</v>
       </c>
+      <c r="P381" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="382" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>381</v>
       </c>
       <c r="B382" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C382" s="37" t="s">
         <v>428</v>
@@ -13289,13 +14525,16 @@
         <f t="array" ref="N382">SECTION_NAME(B382)</f>
         <v>metadata</v>
       </c>
+      <c r="P382" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="383" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>382</v>
       </c>
       <c r="B383" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C383" s="37" t="s">
         <v>429</v>
@@ -13314,16 +14553,19 @@
         <f t="array" ref="N383">SECTION_NAME(B383)</f>
         <v>metadata</v>
       </c>
+      <c r="P383" s="6" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="384" spans="1:20" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A384" s="43">
         <v>383</v>
       </c>
       <c r="B384" s="44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C384" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D384" s="43" t="s">
         <v>26</v>
@@ -13339,8 +14581,11 @@
         <f t="array" ref="N384">SECTION_NAME(B384)</f>
         <v>metadata</v>
       </c>
+      <c r="P384" s="43" t="s">
+        <v>645</v>
+      </c>
       <c r="T384" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="385" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -13348,7 +14593,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C385" s="37" t="s">
         <v>430</v>
@@ -13367,13 +14612,16 @@
         <f t="array" ref="N385">SECTION_NAME(B385)</f>
         <v>metadata</v>
       </c>
+      <c r="P385" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="386" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>385</v>
       </c>
       <c r="B386" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C386" s="37" t="s">
         <v>431</v>
@@ -13392,13 +14640,16 @@
         <f t="array" ref="N386">SECTION_NAME(B386)</f>
         <v>metadata</v>
       </c>
+      <c r="P386" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="387" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>386</v>
       </c>
       <c r="B387" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C387" s="37" t="s">
         <v>432</v>
@@ -13417,6 +14668,9 @@
         <f t="array" ref="N387">SECTION_NAME(B387)</f>
         <v>metadata</v>
       </c>
+      <c r="P387" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="388" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A388" s="39">
@@ -13443,7 +14697,7 @@
         <v>metadata</v>
       </c>
       <c r="T388" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="389" spans="1:20" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -13471,7 +14725,7 @@
         <v>metadata</v>
       </c>
       <c r="T389" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="390" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -13479,7 +14733,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C390" s="37" t="s">
         <v>435</v>
@@ -13498,13 +14752,16 @@
         <f t="array" ref="N390">SECTION_NAME(B390)</f>
         <v>metadata</v>
       </c>
+      <c r="P390" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="391" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>390</v>
       </c>
       <c r="B391" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C391" s="37" t="s">
         <v>436</v>
@@ -13523,13 +14780,16 @@
         <f t="array" ref="N391">SECTION_NAME(B391)</f>
         <v>metadata</v>
       </c>
+      <c r="P391" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="392" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>391</v>
       </c>
       <c r="B392" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C392" s="37" t="s">
         <v>437</v>
@@ -13548,13 +14808,16 @@
         <f t="array" ref="N392">SECTION_NAME(B392)</f>
         <v>metadata</v>
       </c>
+      <c r="P392" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="393" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>392</v>
       </c>
       <c r="B393" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C393" s="37" t="s">
         <v>438</v>
@@ -13573,13 +14836,16 @@
         <f t="array" ref="N393">SECTION_NAME(B393)</f>
         <v>metadata</v>
       </c>
+      <c r="P393" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="394" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>393</v>
       </c>
       <c r="B394" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C394" s="37" t="s">
         <v>439</v>
@@ -13598,13 +14864,16 @@
         <f t="array" ref="N394">SECTION_NAME(B394)</f>
         <v>metadata</v>
       </c>
+      <c r="P394" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="395" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>394</v>
       </c>
       <c r="B395" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C395" s="37" t="s">
         <v>440</v>
@@ -13623,6 +14892,9 @@
         <f t="array" ref="N395">SECTION_NAME(B395)</f>
         <v>metadata</v>
       </c>
+      <c r="P395" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="396" spans="1:20" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A396" s="39">
@@ -13649,7 +14921,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T396" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="397" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -13677,7 +14949,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T397" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="398" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -13705,7 +14977,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T398" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="399" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -13733,7 +15005,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T399" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="400" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -13761,7 +15033,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T400" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="401" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -13789,7 +15061,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T401" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="402" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -13817,7 +15089,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T402" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="403" spans="1:20" s="39" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -13845,7 +15117,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T403" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="404" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -13873,7 +15145,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T404" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="405" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -13901,7 +15173,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T405" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="406" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -13929,7 +15201,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T406" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="407" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -13957,7 +15229,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T407" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="408" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -13985,7 +15257,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T408" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="409" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -14013,7 +15285,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T409" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="410" spans="1:20" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -14041,7 +15313,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T410" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="411" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -14069,7 +15341,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T411" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="412" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14097,7 +15369,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T412" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="413" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -14125,7 +15397,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T413" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="414" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14153,7 +15425,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T414" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="415" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14181,7 +15453,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T415" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="416" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -14209,7 +15481,7 @@
         <v>conformance-overview</v>
       </c>
       <c r="T416" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="417" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14237,7 +15509,7 @@
         <v>fhir-profiles</v>
       </c>
       <c r="T417" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="418" spans="1:20" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -14265,7 +15537,7 @@
         <v>brand-bundle-profile</v>
       </c>
       <c r="T418" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="419" spans="1:20" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -14293,7 +15565,7 @@
         <v>brand-bundle-profile</v>
       </c>
       <c r="T419" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="420" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14321,7 +15593,7 @@
         <v>brand-bundle-profile</v>
       </c>
       <c r="T420" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="421" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14349,7 +15621,7 @@
         <v>consistent-identifiers-for-organizations</v>
       </c>
       <c r="T421" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="422" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14377,7 +15649,7 @@
         <v>consistent-identifiers-for-organizations</v>
       </c>
       <c r="T422" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="423" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -14405,7 +15677,7 @@
         <v>consistent-identifiers-for-organizations</v>
       </c>
       <c r="T423" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="424" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -14433,7 +15705,7 @@
         <v>managing-cross-origin-resource-sharing-cors-for-fhir-resources</v>
       </c>
       <c r="T424" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="425" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -14461,7 +15733,7 @@
         <v>caching-brand-bundles</v>
       </c>
       <c r="T425" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="426" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -14489,7 +15761,7 @@
         <v>caching-brand-bundles</v>
       </c>
       <c r="T426" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="427" spans="1:20" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -14517,7 +15789,7 @@
         <v>caching-brand-bundles</v>
       </c>
       <c r="T427" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="428" spans="1:20" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -14545,7 +15817,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T428" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="429" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -14573,7 +15845,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T429" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="430" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14601,7 +15873,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T430" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="431" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14629,7 +15901,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T431" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="432" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14657,7 +15929,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T432" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="433" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14685,7 +15957,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T433" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="434" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14713,7 +15985,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T434" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="435" spans="1:20" s="39" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -14741,7 +16013,7 @@
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
       <c r="T435" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="436" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -14761,7 +16033,7 @@
         <v>27</v>
       </c>
       <c r="T436" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="437" spans="1:20" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14781,7 +16053,7 @@
         <v>56</v>
       </c>
       <c r="T437" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="438" spans="1:20" s="39" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -14809,7 +16081,7 @@
         <v>must-support-definition-ms-and-data-absent-reasons</v>
       </c>
       <c r="T438" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="439" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -14817,10 +16089,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="C439" s="37" t="s">
         <v>608</v>
-      </c>
-      <c r="C439" s="37" t="s">
-        <v>609</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>36</v>
@@ -14836,16 +16108,19 @@
         <f t="array" ref="N439">SECTION_NAME(B439)</f>
         <v>metadata</v>
       </c>
+      <c r="P439" s="47" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="440" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>439</v>
       </c>
       <c r="B440" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C440" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>36</v>
@@ -14860,6 +16135,9 @@
       <c r="N440" s="34" t="str" cm="1">
         <f t="array" ref="N440">SECTION_NAME(B440)</f>
         <v>metadata</v>
+      </c>
+      <c r="P440" s="47" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="441" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -15591,27 +16869,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="132.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="B1" s="52"/>
+      <c r="A1" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -15680,6 +16958,22 @@
         <v>523</v>
       </c>
       <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>651</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
